--- a/references/level3_guide_table.xlsx
+++ b/references/level3_guide_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elisa\Documents\DTU\Fairness-oriented-interpretability-of-predictive-algorithms\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79F17A7-4294-4C3D-AB16-C978D375A0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8641FFF-0EDE-4272-9EF5-FF948105C14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{60B1DC5E-ABED-47DA-9DEF-21278A0E0F65}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
